--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -479,10 +479,10 @@
         <v>45838</v>
       </c>
       <c r="B2" t="n">
-        <v>26822.19</v>
+        <v>26857.1</v>
       </c>
       <c r="C2" t="n">
-        <v>22.24</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="3">
